--- a/HW/PCB_TOP/Default Configuration/Outputs/BOM/BOM_PartType-Timer_Clock_TOP(AlarmClock_JLC).xlsx
+++ b/HW/PCB_TOP/Default Configuration/Outputs/BOM/BOM_PartType-Timer_Clock_TOP(AlarmClock_JLC).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B4CD6F5-6F14-4B9D-AEB8-0492284D5D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B9FD773-36BD-444F-A2B8-57E58AD6584A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{033F0F40-F50C-454F-9174-5B79C3E93A66}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{E3ECC765-43B4-4325-B052-FFAB66F84D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Timer_Clock_TOP(Al" sheetId="1" r:id="rId1"/>
@@ -716,7 +716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BED0487-EEE8-4B66-AF33-D529927F3C39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC951BD8-1742-406C-B779-96C333B6DA9D}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
